--- a/data/model_data.xlsx
+++ b/data/model_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilsumin/Documents/rosatom/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilsumin/Documents/GitHub/Hack_SMP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA54D2C1-0751-D546-A984-92EE517646CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B527C2A-9AC0-6844-B970-FE477438F952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="3" xr2:uid="{DCF7C7C9-BFCC-E946-BD2A-66B1E929F6D7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{DCF7C7C9-BFCC-E946-BD2A-66B1E929F6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="149">
   <si>
     <t>point_id</t>
   </si>
@@ -487,13 +487,16 @@
   </si>
   <si>
     <t>class_type</t>
+  </si>
+  <si>
+    <t>avg_norm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +564,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -723,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -800,6 +809,9 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D47656-106D-6748-8B07-004503837463}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1853,7 @@
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
@@ -1851,8 +1863,11 @@
       <c r="C1" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>44</v>
       </c>
@@ -1862,8 +1877,11 @@
       <c r="C2">
         <v>270.01664160000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>21.194077901734101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1873,8 +1891,11 @@
       <c r="C3">
         <v>277.18983630000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>12.740096483870969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1884,8 +1905,11 @@
       <c r="C4">
         <v>58.390351320000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>13.17938166666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1895,8 +1919,11 @@
       <c r="C5">
         <v>238.85898850000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>16.65464494966443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="C6">
         <v>86.930049159999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>18.6924039047619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21</v>
       </c>
@@ -1917,8 +1947,11 @@
       <c r="C7">
         <v>655.35573739999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>21.786771598290599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1928,8 +1961,11 @@
       <c r="C8">
         <v>410.57011160000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>21.904748999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>45</v>
       </c>
@@ -1939,8 +1975,11 @@
       <c r="C9">
         <v>119.56344919999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1950,8 +1989,11 @@
       <c r="C10">
         <v>206.8821279</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>18.01113057086614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1961,8 +2003,11 @@
       <c r="C11">
         <v>191.1526107</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>19.317563622950821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>27</v>
       </c>
@@ -1972,8 +2017,11 @@
       <c r="C12">
         <v>178.64541199999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>14.39287362745098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -1983,8 +2031,11 @@
       <c r="C13">
         <v>205.7748943</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>12.461335846534659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40</v>
       </c>
@@ -1994,8 +2045,11 @@
       <c r="C14">
         <v>134.30498470000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>12.99058395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>42</v>
       </c>
@@ -2005,8 +2059,11 @@
       <c r="C15">
         <v>174.3916815</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>17.417556641304341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>31</v>
       </c>
@@ -2016,8 +2073,11 @@
       <c r="C16">
         <v>81.815960799999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>20.589135333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2027,8 +2087,11 @@
       <c r="C17">
         <v>123.6831421</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>19.931641564102559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12</v>
       </c>
@@ -2038,8 +2101,11 @@
       <c r="C18">
         <v>246.24586489999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>15.31248384594595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12</v>
       </c>
@@ -2049,8 +2115,11 @@
       <c r="C19">
         <v>339.77822600000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>11.865938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2060,8 +2129,11 @@
       <c r="C20">
         <v>270.59211690000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>21.860429205128209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -2071,8 +2143,11 @@
       <c r="C21">
         <v>127.65462359999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>14.216953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2082,8 +2157,11 @@
       <c r="C22">
         <v>140.73600680000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>15.985366040000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2093,8 +2171,11 @@
       <c r="C23">
         <v>278.1227556</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>21.44631870833333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2104,8 +2185,11 @@
       <c r="C24">
         <v>251.86265969999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>16.292910472222228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>33</v>
       </c>
@@ -2115,8 +2199,11 @@
       <c r="C25">
         <v>225.02389769999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>12.83147686842106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -2126,8 +2213,11 @@
       <c r="C26">
         <v>152.20194660000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>14.482864470000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2137,8 +2227,11 @@
       <c r="C27">
         <v>288.19191749999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>21.904748999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2148,8 +2241,11 @@
       <c r="C28">
         <v>121.8205679</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>17.377392580645161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2159,8 +2255,11 @@
       <c r="C29">
         <v>315.30476279999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>21.776599807017551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
@@ -2170,8 +2269,11 @@
       <c r="C30">
         <v>69.168612730000007</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>20.506905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2181,8 +2283,11 @@
       <c r="C31">
         <v>234.89411480000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>12.18967506060606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>19</v>
       </c>
@@ -2192,8 +2297,11 @@
       <c r="C32">
         <v>47.63018916</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>21.665496999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -2203,8 +2311,11 @@
       <c r="C33">
         <v>308.41519959999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>12.15264580263158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>13</v>
       </c>
@@ -2214,8 +2325,11 @@
       <c r="C34">
         <v>77.963962300000006</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>20.088388404761901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>21</v>
       </c>
@@ -2225,8 +2339,11 @@
       <c r="C35">
         <v>445.92813819999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>21.78999038641189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>30</v>
       </c>
@@ -2236,8 +2353,11 @@
       <c r="C36">
         <v>436.27169129999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>12.318702874535321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="C37">
         <v>229.4577372</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>14.92457987234042</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>21</v>
       </c>
@@ -2258,8 +2381,11 @@
       <c r="C38">
         <v>297.15080849999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>21.78000566108787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>16</v>
       </c>
@@ -2269,8 +2395,11 @@
       <c r="C39">
         <v>296.3206745</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>15.67853749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>45</v>
       </c>
@@ -2280,8 +2409,11 @@
       <c r="C40">
         <v>373.63082739999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>15.08642680982906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>17</v>
       </c>
@@ -2291,8 +2423,11 @@
       <c r="C41">
         <v>281.08704540000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>14.05016375824176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>18</v>
       </c>
@@ -2302,8 +2437,11 @@
       <c r="C42">
         <v>98.815529369999993</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>13.823896700000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -2313,8 +2451,11 @@
       <c r="C43">
         <v>460.28483269999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>30</v>
       </c>
@@ -2324,8 +2465,11 @@
       <c r="C44">
         <v>260.57011360000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>12.770440292207789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24</v>
       </c>
@@ -2335,8 +2479,11 @@
       <c r="C45">
         <v>179.7422785</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>14.515752543478261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10</v>
       </c>
@@ -2346,8 +2493,11 @@
       <c r="C46">
         <v>263.63934649999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>16.897731356481479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>27</v>
       </c>
@@ -2357,8 +2507,11 @@
       <c r="C47">
         <v>355.62316140000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>15.239958882352941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -2368,8 +2521,11 @@
       <c r="C48">
         <v>157.6035239</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>18.169490666666661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
@@ -2379,8 +2535,11 @@
       <c r="C49">
         <v>192.45222290000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>15.605948339999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>34</v>
       </c>
@@ -2390,8 +2549,11 @@
       <c r="C50">
         <v>215.05323759999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>16.972541303030301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>43</v>
       </c>
@@ -2401,8 +2563,11 @@
       <c r="C51">
         <v>223.5714878</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>20.224047797297299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2412,8 +2577,11 @@
       <c r="C52">
         <v>352.93682100000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>16.46450232619048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10</v>
       </c>
@@ -2423,8 +2591,11 @@
       <c r="C53">
         <v>108.6630553</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>14.42121222222222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>37</v>
       </c>
@@ -2434,8 +2605,11 @@
       <c r="C54">
         <v>414.6912251</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13</v>
       </c>
@@ -2445,8 +2619,11 @@
       <c r="C55">
         <v>410.45491850000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>17.996349328767121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2456,8 +2633,11 @@
       <c r="C56">
         <v>260.1771091</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>17.798724012987009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="C57">
         <v>171.4172136</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>17.16853953333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>36</v>
       </c>
@@ -2478,8 +2661,11 @@
       <c r="C58">
         <v>116.7439955</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>15.005507615384611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>33</v>
       </c>
@@ -2489,8 +2675,11 @@
       <c r="C59">
         <v>261.60058900000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>13.629532264204551</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>20</v>
       </c>
@@ -2500,8 +2689,11 @@
       <c r="C60">
         <v>409.31115749999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>16.958945666666661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
@@ -2511,8 +2703,11 @@
       <c r="C61">
         <v>326.43284169999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>19.070538453917049</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>34</v>
       </c>
@@ -2522,8 +2717,11 @@
       <c r="C62">
         <v>195.73284430000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>20.549003132743358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>44</v>
       </c>
@@ -2533,8 +2731,11 @@
       <c r="C63">
         <v>156.0644819</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>21.654969156250001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>14</v>
       </c>
@@ -2544,8 +2745,11 @@
       <c r="C64">
         <v>45.642155700000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>11.95382575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -2555,8 +2759,11 @@
       <c r="C65">
         <v>206.59791390000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>15.96192902666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2566,8 +2773,11 @@
       <c r="C66">
         <v>456.26762389999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>21.900680166666671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>16</v>
       </c>
@@ -2577,8 +2787,11 @@
       <c r="C67">
         <v>145.18263640000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>21.270237317073171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>27</v>
       </c>
@@ -2588,8 +2801,11 @@
       <c r="C68">
         <v>275.66045489999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>13.93835457575757</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>13</v>
       </c>
@@ -2599,8 +2815,11 @@
       <c r="C69">
         <v>130.30811159999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>19.154818057142851</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>19</v>
       </c>
@@ -2610,8 +2829,11 @@
       <c r="C70">
         <v>58.957502009999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>13.692064</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -2621,8 +2843,11 @@
       <c r="C71">
         <v>280.78065989999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>19.821760407303369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2632,8 +2857,11 @@
       <c r="C72">
         <v>227.22693039999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>21.904748999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>22</v>
       </c>
@@ -2643,8 +2871,11 @@
       <c r="C73">
         <v>124.90922089999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>10.078873</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>17</v>
       </c>
@@ -2653,6 +2884,9 @@
       </c>
       <c r="C74">
         <v>285.07951350000002</v>
+      </c>
+      <c r="D74">
+        <v>14.05176567484663</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +4298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF456C85-5B59-3840-86D0-0E72A30F0F89}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
